--- a/data/trans_camb/P16A09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.2149624672641008</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.702993874204616</v>
+        <v>2.702993874204617</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.2077348198729914</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.776634837002982</v>
+        <v>-2.770061300476961</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.232471702957997</v>
+        <v>-3.396762761243088</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.013741090138389</v>
+        <v>-2.141436580059823</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3598317142542958</v>
+        <v>-0.371729502227293</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.962861322513157</v>
+        <v>-1.768441645290299</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.718966088948005</v>
+        <v>0.700563655413146</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.037317218369099</v>
+        <v>-1.154225846376047</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.040674857977619</v>
+        <v>-2.003023745198814</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.07947793553817015</v>
+        <v>-0.1760874086094819</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3168172596704034</v>
+        <v>0.4211054530972625</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.2757932100531824</v>
+        <v>-0.344915627024503</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.286531939502103</v>
+        <v>1.15650680083741</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.811807124156337</v>
+        <v>3.98188717536326</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.552827964576398</v>
+        <v>2.297106646000063</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.80990442360055</v>
+        <v>4.690306654012821</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.705760801380093</v>
+        <v>1.556695866583929</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6234937299556707</v>
+        <v>0.5923914913046966</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.564938690159895</v>
+        <v>2.393906653211344</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.05725116149779072</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7198909688243561</v>
+        <v>0.7198909688243564</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.06211441988405561</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7281643594069733</v>
+        <v>-0.7218750652740327</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8098735825127514</v>
+        <v>-0.8105476781586464</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5410704341439012</v>
+        <v>-0.5696646700848644</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1033439519525515</v>
+        <v>-0.1124376006353636</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4173413206328326</v>
+        <v>-0.4038201440931141</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1358717721538148</v>
+        <v>0.1215304312393372</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2768900250118448</v>
+        <v>-0.2908740463140195</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4954448554445223</v>
+        <v>-0.4816658153462857</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.02559764111467805</v>
+        <v>-0.05020883519414623</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2085035527394706</v>
+        <v>0.2416624817791994</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.02208041213671742</v>
+        <v>-0.06797937231719946</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6449160619071463</v>
+        <v>0.5584783454824415</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.417859978431854</v>
+        <v>1.393694293538333</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9153925525122536</v>
+        <v>0.8742318205535385</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.717591411389264</v>
+        <v>1.658113586536054</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6118792518382687</v>
+        <v>0.5781327002705754</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2542535234677439</v>
+        <v>0.2279693345094597</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.004932589154512</v>
+        <v>0.8768227344539592</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.7817074307117478</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.1238462792713529</v>
+        <v>0.1238462792713536</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.6942652269285858</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.98851426234736</v>
+        <v>-1.838411504041526</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.558193812750831</v>
+        <v>-2.521595269908985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.405164572459215</v>
+        <v>-2.350385478551628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3362977620753661</v>
+        <v>-0.3112126349988154</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.602271812292064</v>
+        <v>-2.717813040969857</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.55940949965852</v>
+        <v>-1.526825300739138</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.4935617484200989</v>
+        <v>-0.6563079644196352</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.131976711763749</v>
+        <v>-2.121742385748186</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.497832884100744</v>
+        <v>-1.58466938527491</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.10613166884522</v>
+        <v>1.197515328174546</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.01811619672008044</v>
+        <v>0.04763322998351955</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2592703199902161</v>
+        <v>0.388234251839656</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.807224426455937</v>
+        <v>3.988102255138932</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9397385218240193</v>
+        <v>1.167474124859518</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.87507537882978</v>
+        <v>1.816822772918042</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.953520682354958</v>
+        <v>1.88249217090947</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2078608121275842</v>
+        <v>0.2081298838607223</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.643306722232776</v>
+        <v>0.6410494256415364</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.1671632564613321</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02648375406227004</v>
+        <v>0.02648375406227019</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.188217813292007</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5495143418298579</v>
+        <v>-0.5337449059512812</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7387788877859147</v>
+        <v>-0.7162004299416239</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6642966050725317</v>
+        <v>-0.6544313900892126</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06336307439756947</v>
+        <v>-0.08999811046002898</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4542007433306569</v>
+        <v>-0.4737381070094138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2698157947122516</v>
+        <v>-0.2658051686300529</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1158676906806022</v>
+        <v>-0.1521854861371335</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4760565614830434</v>
+        <v>-0.4941474331321052</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3399353371477546</v>
+        <v>-0.3561498300072006</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5491192749872166</v>
+        <v>0.5755143000577703</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01460621209533504</v>
+        <v>0.0740479832193096</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1973888625036829</v>
+        <v>0.2170374331688004</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.05117781233995</v>
+        <v>1.018565491496088</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2742307422908258</v>
+        <v>0.3009655305380122</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5173254558877853</v>
+        <v>0.5052517116247255</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6244968298301397</v>
+        <v>0.6125573974404891</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.07330566775759192</v>
+        <v>0.06624512233511755</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2119684290875675</v>
+        <v>0.2182638803942098</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.7697284363775651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.9471892624395277</v>
+        <v>-0.9471892624395282</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.332267033483539</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.367857641329129</v>
+        <v>-2.268675857520536</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.432125646294829</v>
+        <v>-2.467910410083899</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.495094816104738</v>
+        <v>-2.461118756099991</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.71340753343115</v>
+        <v>-3.541201694967131</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.643415315691152</v>
+        <v>-4.760591404466211</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.08327440322054</v>
+        <v>-4.435237386662562</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.445628058174113</v>
+        <v>-2.366465658215615</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.039642611788286</v>
+        <v>-2.932530330165668</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.845318540369537</v>
+        <v>-2.752664921482461</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8062746617897449</v>
+        <v>1.083706098967347</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6770709199817666</v>
+        <v>0.6829520889006035</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3794708604522742</v>
+        <v>0.5312463938147448</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8099693924863124</v>
+        <v>1.013007636320243</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1257974047986947</v>
+        <v>-0.06168333662315818</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1583447632064587</v>
+        <v>-0.1109024426236178</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6117320480297203</v>
+        <v>0.417865044291844</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.1303519375763454</v>
+        <v>-0.1249928794139738</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.2075697001891013</v>
+        <v>-0.3401462177334659</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3061475696814577</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3767298660406952</v>
+        <v>-0.3767298660406954</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.219287619685628</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7076341699583029</v>
+        <v>-0.6969041623718768</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7003576020675184</v>
+        <v>-0.7032130576302306</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7284172261988293</v>
+        <v>-0.7140389978536843</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4993840530550387</v>
+        <v>-0.4911439230285181</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6319874126436658</v>
+        <v>-0.6418159081919557</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5568796980522971</v>
+        <v>-0.5893745616978119</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4813114050410303</v>
+        <v>-0.4835033863283322</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5769514577787203</v>
+        <v>-0.5634978368372464</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5482465529475319</v>
+        <v>-0.553323490327302</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4602634234902235</v>
+        <v>0.6605687306106837</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4017021318732171</v>
+        <v>0.4277384196191432</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2427846292773795</v>
+        <v>0.390704323705748</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1758908121872113</v>
+        <v>0.2289721422632865</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03953560575922421</v>
+        <v>-0.03562591327080356</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04091194396546519</v>
+        <v>-0.02197299080150718</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1867406126308989</v>
+        <v>0.1164138046723001</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.005841086045007232</v>
+        <v>-0.02935197160365073</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.04212111222922539</v>
+        <v>-0.08646994460558835</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.654403791181535</v>
+        <v>-2.758746768390405</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.986371144371994</v>
+        <v>-3.847226421041163</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.882585874178327</v>
+        <v>-2.971029958763802</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.511022934695126</v>
+        <v>-1.380949663220904</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.90947264608448</v>
+        <v>-3.895015240625335</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.422982447996151</v>
+        <v>-1.010636986273921</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.498623151835543</v>
+        <v>-1.569303600829761</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.485191894667314</v>
+        <v>-3.444296977851285</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.442066310634913</v>
+        <v>-1.433732691144687</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3057036689392345</v>
+        <v>0.2781098654375587</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.255284457020395</v>
+        <v>-1.259545153735921</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.1233244748341154</v>
+        <v>-0.284822627710677</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.814540903173643</v>
+        <v>2.937128940012748</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.1690910544311353</v>
+        <v>0.03531658493000985</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.624577390860871</v>
+        <v>2.873756225303135</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.203106514011303</v>
+        <v>1.286456648807525</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.17138636399928</v>
+        <v>-1.072810506049035</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9196328762733401</v>
+        <v>0.8258281786809571</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.7468211644991336</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4459337798278886</v>
+        <v>-0.4459337798278885</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1311606548180697</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6476143192912376</v>
+        <v>-0.6601648733818308</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8954599549613464</v>
+        <v>-0.8978022181621887</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6668018556977959</v>
+        <v>-0.6734291537239264</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2233525073737782</v>
+        <v>-0.2069709776061881</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5849620060712234</v>
+        <v>-0.5832982820156742</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2101695656161931</v>
+        <v>-0.1560225824001066</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.290158679247296</v>
+        <v>-0.2964767763179758</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6705217151976449</v>
+        <v>-0.6593168459421719</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2823259876179307</v>
+        <v>-0.2759345002117225</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1445789943311677</v>
+        <v>0.1203821411596687</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.4211516908707607</v>
+        <v>-0.4228653210237456</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.03976984159425479</v>
+        <v>-0.08257803032906152</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5989397825874353</v>
+        <v>0.6415452158045498</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.03038338499277782</v>
+        <v>0.0211509163036891</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5437376680669326</v>
+        <v>0.6658959932033861</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3118964871357109</v>
+        <v>0.3250078301746427</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2974563114975519</v>
+        <v>-0.279769746426732</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2329726237894158</v>
+        <v>0.2263257163152975</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-1.419033442530246</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.2979168207970666</v>
+        <v>-0.2979168207970673</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.645109682726414</v>
+        <v>-1.597817308131853</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.331501662752117</v>
+        <v>-2.249261770489147</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.800013266150791</v>
+        <v>-1.788689365598611</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.4109677610249828</v>
+        <v>-0.3287985899713057</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.384588824412565</v>
+        <v>-2.29339208126057</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.5756019321535997</v>
+        <v>-0.5677824100930146</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6925605118486795</v>
+        <v>-0.6543071943733034</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.055183787126698</v>
+        <v>-2.037008578230307</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.9415890404937153</v>
+        <v>-0.9614277904195392</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.05633075839015642</v>
+        <v>-0.08488161611159985</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.9164441853216196</v>
+        <v>-0.882587889773072</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.3742026186441672</v>
+        <v>-0.3812819242050615</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.835832037242296</v>
+        <v>1.866670311511046</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.3299238365996345</v>
+        <v>-0.2678111412150579</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.319670806410333</v>
+        <v>1.37186043244451</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.6632730136828353</v>
+        <v>0.7299726664694614</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.7876472494364724</v>
+        <v>-0.8655124863040086</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2593290783993613</v>
+        <v>0.2810391166619803</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.3539134922652143</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.07430183059310988</v>
+        <v>-0.07430183059311005</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4868309707064807</v>
+        <v>-0.469951743476135</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6897933406095341</v>
+        <v>-0.688286958680832</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5266535671779222</v>
+        <v>-0.536936224382616</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.07646058351713153</v>
+        <v>-0.05986232162606449</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4204396215064795</v>
+        <v>-0.4041914619883706</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1075541041784987</v>
+        <v>-0.09977554717945158</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.161115397958124</v>
+        <v>-0.1540338577253034</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4700426388813683</v>
+        <v>-0.4743496918035885</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2153462147692817</v>
+        <v>-0.2180345894581076</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.02139132506212554</v>
+        <v>-0.02597125215463272</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3590024914509384</v>
+        <v>-0.3593761992680608</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1442595661063765</v>
+        <v>-0.1541191360657518</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3974890151246002</v>
+        <v>0.4133473237341314</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.07460135226731252</v>
+        <v>-0.05449450053105412</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.299322455834423</v>
+        <v>0.3031105252636122</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1745995881892064</v>
+        <v>0.2024739962570112</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2153698233492628</v>
+        <v>-0.2257793718019556</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.07051611879801695</v>
+        <v>0.07672826864599644</v>
       </c>
     </row>
     <row r="34">
